--- a/data/compras/proveedores_oficiales.xlsx
+++ b/data/compras/proveedores_oficiales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\comisiones\manage_api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A46C4F8-04A1-43DD-A0C3-6A1EA772473C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB7AB32-0439-4E17-B618-4B8EB2564C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -834,9 +834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="B25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/compras/proveedores_oficiales.xlsx
+++ b/data/compras/proveedores_oficiales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB7AB32-0439-4E17-B618-4B8EB2564C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA68C73-3A01-44DE-BCFE-26835B8E20CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28210" yWindow="1800" windowWidth="18820" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>partner_id</t>
   </si>
@@ -470,6 +470,15 @@
   </si>
   <si>
     <t>oficial</t>
+  </si>
+  <si>
+    <t>Operadora de Franquicias Malabares SA de CV</t>
+  </si>
+  <si>
+    <t>Casa Ikeda</t>
+  </si>
+  <si>
+    <t>Aurora Yanet Cruz Amaya</t>
   </si>
 </sst>
 </file>
@@ -832,11 +841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="B25:C25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,10 +867,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5321</v>
+        <v>5127</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -869,21 +878,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>5246</v>
+        <v>5128</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5387</v>
+        <v>5131</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -891,10 +900,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5326</v>
+        <v>5136</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -902,10 +911,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5305</v>
+        <v>5139</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -913,10 +922,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5143</v>
+        <v>5140</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -924,10 +933,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5128</v>
+        <v>5143</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -935,10 +944,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5241</v>
+        <v>5146</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -946,21 +955,21 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5178</v>
+        <v>5147</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5285</v>
+        <v>5153</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -968,10 +977,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5334</v>
+        <v>5157</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -979,10 +988,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5147</v>
+        <v>5161</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -990,21 +999,21 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>5366</v>
+        <v>5162</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>5240</v>
+        <v>5164</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1012,10 +1021,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5221</v>
+        <v>5165</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1023,10 +1032,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>5290</v>
+        <v>5166</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1034,10 +1043,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>5361</v>
+        <v>5167</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1045,10 +1054,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17001</v>
+        <v>5170</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1056,10 +1065,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>5315</v>
+        <v>5173</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1067,10 +1076,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>5335</v>
+        <v>5174</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1078,10 +1087,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>5365</v>
+        <v>5175</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1089,10 +1098,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>5283</v>
+        <v>5178</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1100,21 +1109,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>5280</v>
+        <v>5179</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>5244</v>
+        <v>5180</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1122,21 +1131,21 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>5384</v>
+        <v>5181</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>5287</v>
+        <v>5182</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1144,10 +1153,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>5174</v>
+        <v>5200</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1155,10 +1164,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>5296</v>
+        <v>5209</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1166,10 +1175,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>5228</v>
+        <v>5219</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1177,10 +1186,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>5227</v>
+        <v>5221</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1188,10 +1197,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>5367</v>
+        <v>5222</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1199,21 +1208,21 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>5146</v>
+        <v>5223</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>14787</v>
+        <v>5225</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1221,10 +1230,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>5157</v>
+        <v>5226</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1232,10 +1241,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>5262</v>
+        <v>5227</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1243,21 +1252,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>5393</v>
+        <v>5228</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>5369</v>
+        <v>5229</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1265,10 +1274,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>13732</v>
+        <v>5230</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1276,10 +1285,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>5327</v>
+        <v>5233</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1287,10 +1296,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>5245</v>
+        <v>5235</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1298,21 +1307,21 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>5250</v>
+        <v>5236</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>5378</v>
+        <v>5237</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1320,21 +1329,21 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>16735</v>
+        <v>5239</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>5294</v>
+        <v>5240</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1342,21 +1351,21 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>5318</v>
+        <v>5241</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>5131</v>
+        <v>5242</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1364,21 +1373,21 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>5266</v>
+        <v>5244</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>5352</v>
+        <v>5245</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1386,43 +1395,43 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>16898</v>
+        <v>5246</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>16938</v>
+        <v>5248</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>5179</v>
+        <v>5249</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>5219</v>
+        <v>5250</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1430,10 +1439,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>5398</v>
+        <v>5251</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1441,21 +1450,21 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>5337</v>
+        <v>5252</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>5343</v>
+        <v>5261</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1463,10 +1472,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>5309</v>
+        <v>5262</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1474,10 +1483,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>5264</v>
+        <v>5263</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1485,10 +1494,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5226</v>
+        <v>5264</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1496,10 +1505,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>5313</v>
+        <v>5265</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1507,21 +1516,21 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5180</v>
+        <v>5266</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>16965</v>
+        <v>5269</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1529,10 +1538,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>14051</v>
+        <v>5274</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1540,10 +1549,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5173</v>
+        <v>5276</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1551,21 +1560,21 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>5375</v>
+        <v>5277</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>5181</v>
+        <v>5278</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1573,10 +1582,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>5278</v>
+        <v>5280</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1584,10 +1593,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>5161</v>
+        <v>5281</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1595,32 +1604,32 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>5265</v>
+        <v>5283</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>5230</v>
+        <v>5284</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>5209</v>
+        <v>5285</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1628,21 +1637,21 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>14107</v>
+        <v>5286</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>5298</v>
+        <v>5287</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1650,10 +1659,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>5351</v>
+        <v>5289</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1661,10 +1670,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>5329</v>
+        <v>5290</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1672,10 +1681,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>5383</v>
+        <v>5294</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1683,10 +1692,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>16544</v>
+        <v>5296</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1694,21 +1703,21 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>5344</v>
+        <v>5297</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>5289</v>
+        <v>5298</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1716,10 +1725,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>16862</v>
+        <v>5301</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1727,21 +1736,21 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>5392</v>
+        <v>5305</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>5239</v>
+        <v>5309</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1749,10 +1758,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>5388</v>
+        <v>5312</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1760,10 +1769,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>5251</v>
+        <v>5313</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1771,10 +1780,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>5153</v>
+        <v>5315</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1782,10 +1791,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>5354</v>
+        <v>5317</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1793,65 +1802,65 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>5248</v>
+        <v>5318</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>5320</v>
+        <v>5319</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>5233</v>
+        <v>5320</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>5362</v>
+        <v>5321</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>16864</v>
+        <v>5322</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>5237</v>
+        <v>5326</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1859,10 +1868,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>5342</v>
+        <v>5327</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1870,10 +1879,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>5182</v>
+        <v>5328</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1881,10 +1890,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>5330</v>
+        <v>5329</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1892,10 +1901,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>5249</v>
+        <v>5330</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -1903,10 +1912,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>5162</v>
+        <v>5334</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1914,10 +1923,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>16843</v>
+        <v>5335</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1925,21 +1934,21 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>5236</v>
+        <v>5337</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>5281</v>
+        <v>5340</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1947,10 +1956,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>5269</v>
+        <v>5342</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -1958,10 +1967,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>5373</v>
+        <v>5343</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -1969,10 +1978,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>5284</v>
+        <v>5344</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1980,21 +1989,21 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>16749</v>
+        <v>5350</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>5223</v>
+        <v>5351</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2002,10 +2011,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>5165</v>
+        <v>5352</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2013,32 +2022,32 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>16813</v>
+        <v>5354</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>5301</v>
+        <v>5360</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>5350</v>
+        <v>5361</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2046,21 +2055,21 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>5164</v>
+        <v>5362</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>5235</v>
+        <v>5365</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2068,10 +2077,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>5360</v>
+        <v>5366</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2079,10 +2088,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>5312</v>
+        <v>5367</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2090,10 +2099,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>5242</v>
+        <v>5369</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2101,10 +2110,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>5175</v>
+        <v>5373</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2112,21 +2121,21 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>16692</v>
+        <v>5375</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>5140</v>
+        <v>5377</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2134,10 +2143,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>5277</v>
+        <v>5378</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2145,10 +2154,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>16685</v>
+        <v>5383</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2156,21 +2165,21 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>5319</v>
+        <v>5384</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>5200</v>
+        <v>5387</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2178,10 +2187,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>5263</v>
+        <v>5388</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2189,10 +2198,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>5261</v>
+        <v>5389</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2200,32 +2209,32 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>5225</v>
+        <v>5392</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>16643</v>
+        <v>5393</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>5389</v>
+        <v>5394</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2233,10 +2242,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>15329</v>
+        <v>5396</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2244,10 +2253,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>5276</v>
+        <v>5397</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2255,10 +2264,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>5136</v>
+        <v>5398</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2266,10 +2275,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>5167</v>
+        <v>13732</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2277,21 +2286,21 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>5252</v>
+        <v>14051</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>5377</v>
+        <v>14107</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2299,21 +2308,21 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>5286</v>
+        <v>14787</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>5274</v>
+        <v>14806</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2321,10 +2330,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>5340</v>
+        <v>15329</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2332,10 +2341,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>5328</v>
+        <v>16544</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2343,21 +2352,21 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>5317</v>
+        <v>16643</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>5139</v>
+        <v>16685</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2365,10 +2374,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>5222</v>
+        <v>16692</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2376,32 +2385,32 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>5127</v>
+        <v>16735</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>5297</v>
+        <v>16749</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>5396</v>
+        <v>16813</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2409,10 +2418,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>5394</v>
+        <v>16843</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2420,10 +2429,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>5397</v>
+        <v>16862</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2431,21 +2440,21 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>14806</v>
+        <v>16864</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>5166</v>
+        <v>16898</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2453,10 +2462,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>5229</v>
+        <v>16938</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2464,16 +2473,52 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>5322</v>
+        <v>16965</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
     </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>17001</v>
+      </c>
+      <c r="B149" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>17062</v>
+      </c>
+      <c r="B150" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>17063</v>
+      </c>
+      <c r="B151" t="s">
+        <v>150</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C151">
+    <sortCondition ref="A1:A151"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/compras/proveedores_oficiales.xlsx
+++ b/data/compras/proveedores_oficiales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA68C73-3A01-44DE-BCFE-26835B8E20CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78772B6D-CEAD-4419-9296-9E87C8BB48FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28210" yWindow="1800" windowWidth="18820" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="744" windowWidth="15708" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -844,8 +844,8 @@
   <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="B84:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1775,7 +1775,7 @@
         <v>60</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">

--- a/data/compras/proveedores_oficiales.xlsx
+++ b/data/compras/proveedores_oficiales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78772B6D-CEAD-4419-9296-9E87C8BB48FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F91B33-A3AB-424F-8E04-DD4E6900943A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="744" windowWidth="15708" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33330" yWindow="4240" windowWidth="15710" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>partner_id</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>Aurora Yanet Cruz Amaya</t>
+  </si>
+  <si>
+    <t>Feyco</t>
   </si>
 </sst>
 </file>
@@ -841,11 +844,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="B84:C84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,10 +1541,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1549,10 +1552,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5276</v>
+        <v>5274</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1560,10 +1563,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>5277</v>
+        <v>5276</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1571,10 +1574,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>5278</v>
+        <v>5277</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1582,10 +1585,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>5280</v>
+        <v>5278</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1593,10 +1596,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>5281</v>
+        <v>5280</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1604,21 +1607,21 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>5283</v>
+        <v>5281</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>5284</v>
+        <v>5283</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1626,43 +1629,43 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>5285</v>
+        <v>5284</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>5286</v>
+        <v>5285</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>5287</v>
+        <v>5286</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>5289</v>
+        <v>5287</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1670,10 +1673,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>5290</v>
+        <v>5289</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1681,10 +1684,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>5294</v>
+        <v>5290</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1692,10 +1695,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>5296</v>
+        <v>5294</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1703,10 +1706,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>5297</v>
+        <v>5296</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1714,10 +1717,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>5298</v>
+        <v>5297</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1725,10 +1728,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>5301</v>
+        <v>5298</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1736,10 +1739,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>5305</v>
+        <v>5301</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1747,10 +1750,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>5309</v>
+        <v>5305</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1758,10 +1761,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>5312</v>
+        <v>5309</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1769,54 +1772,54 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>5313</v>
+        <v>5312</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>5315</v>
+        <v>5313</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>5317</v>
+        <v>5315</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>5318</v>
+        <v>5317</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>5319</v>
+        <v>5318</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1824,32 +1827,32 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>5320</v>
+        <v>5319</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>5322</v>
+        <v>5321</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1857,10 +1860,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>5326</v>
+        <v>5322</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1868,10 +1871,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>5327</v>
+        <v>5326</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1879,10 +1882,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>5328</v>
+        <v>5327</v>
       </c>
       <c r="B94" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1890,10 +1893,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>5329</v>
+        <v>5328</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1901,10 +1904,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>5330</v>
+        <v>5329</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -1912,10 +1915,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>5334</v>
+        <v>5330</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1923,10 +1926,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>5335</v>
+        <v>5334</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1934,10 +1937,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>5337</v>
+        <v>5335</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1945,10 +1948,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>5340</v>
+        <v>5337</v>
       </c>
       <c r="B100" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1956,10 +1959,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>5342</v>
+        <v>5340</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -1967,10 +1970,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>5343</v>
+        <v>5342</v>
       </c>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -1978,32 +1981,32 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>5344</v>
+        <v>5343</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>5350</v>
+        <v>5344</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>5351</v>
+        <v>5350</v>
       </c>
       <c r="B105" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2011,10 +2014,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>5352</v>
+        <v>5351</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2022,21 +2025,21 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>5354</v>
+        <v>5352</v>
       </c>
       <c r="B107" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>5360</v>
+        <v>5354</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2044,65 +2047,65 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>5361</v>
+        <v>5360</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>5362</v>
+        <v>5361</v>
       </c>
       <c r="B110" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>5365</v>
+        <v>5362</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>5366</v>
+        <v>5365</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>5367</v>
+        <v>5366</v>
       </c>
       <c r="B113" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>5369</v>
+        <v>5367</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2110,10 +2113,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>5373</v>
+        <v>5369</v>
       </c>
       <c r="B115" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2121,32 +2124,32 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>5375</v>
+        <v>5373</v>
       </c>
       <c r="B116" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>5377</v>
+        <v>5375</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>5378</v>
+        <v>5377</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2154,10 +2157,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>5383</v>
+        <v>5378</v>
       </c>
       <c r="B119" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2165,32 +2168,32 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>5384</v>
+        <v>5383</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>5387</v>
+        <v>5384</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>5388</v>
+        <v>5387</v>
       </c>
       <c r="B122" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2198,10 +2201,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>5389</v>
+        <v>5388</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2209,21 +2212,21 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>5392</v>
+        <v>5389</v>
       </c>
       <c r="B124" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>5393</v>
+        <v>5392</v>
       </c>
       <c r="B125" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -2231,21 +2234,21 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>5394</v>
+        <v>5393</v>
       </c>
       <c r="B126" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>5396</v>
+        <v>5394</v>
       </c>
       <c r="B127" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2253,10 +2256,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>5397</v>
+        <v>5396</v>
       </c>
       <c r="B128" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2264,10 +2267,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="B129" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2275,10 +2278,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>13732</v>
+        <v>5398</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2286,10 +2289,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>14051</v>
+        <v>13732</v>
       </c>
       <c r="B131" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2297,10 +2300,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>14107</v>
+        <v>14051</v>
       </c>
       <c r="B132" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2308,10 +2311,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>14787</v>
+        <v>14107</v>
       </c>
       <c r="B133" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2319,10 +2322,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>14806</v>
+        <v>14787</v>
       </c>
       <c r="B134" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2330,10 +2333,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>15329</v>
+        <v>14806</v>
       </c>
       <c r="B135" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2341,10 +2344,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>16544</v>
+        <v>15329</v>
       </c>
       <c r="B136" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2352,10 +2355,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>16643</v>
+        <v>16544</v>
       </c>
       <c r="B137" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2363,10 +2366,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>16685</v>
+        <v>16643</v>
       </c>
       <c r="B138" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2374,10 +2377,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>16692</v>
+        <v>16685</v>
       </c>
       <c r="B139" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2385,21 +2388,21 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>16735</v>
+        <v>16692</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>16749</v>
+        <v>16735</v>
       </c>
       <c r="B141" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -2407,21 +2410,21 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>16813</v>
+        <v>16749</v>
       </c>
       <c r="B142" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>16843</v>
+        <v>16813</v>
       </c>
       <c r="B143" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2429,10 +2432,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>16862</v>
+        <v>16843</v>
       </c>
       <c r="B144" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2440,32 +2443,32 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>16864</v>
+        <v>16862</v>
       </c>
       <c r="B145" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>16898</v>
+        <v>16864</v>
       </c>
       <c r="B146" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>16938</v>
+        <v>16898</v>
       </c>
       <c r="B147" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2473,10 +2476,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>16965</v>
+        <v>16938</v>
       </c>
       <c r="B148" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2484,10 +2487,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>17001</v>
+        <v>16965</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2495,10 +2498,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>17062</v>
+        <v>17001</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2506,18 +2509,29 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
+        <v>17062</v>
+      </c>
+      <c r="B151" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
         <v>17063</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>150</v>
       </c>
-      <c r="C151">
+      <c r="C152">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C151">
-    <sortCondition ref="A1:A151"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C152">
+    <sortCondition ref="A1:A152"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/compras/proveedores_oficiales.xlsx
+++ b/data/compras/proveedores_oficiales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F91B33-A3AB-424F-8E04-DD4E6900943A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7A79E1-ED0A-44AD-8A1E-08300F6FFE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33330" yWindow="4240" windowWidth="15710" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>partner_id</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>Feyco</t>
+  </si>
+  <si>
+    <t>Herrajes Y Materiales De Los Cabos</t>
   </si>
 </sst>
 </file>
@@ -844,11 +847,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,10 +1181,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>5219</v>
+        <v>5215</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1189,10 +1192,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>5221</v>
+        <v>5219</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1200,10 +1203,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>5222</v>
+        <v>5221</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1211,10 +1214,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>5223</v>
+        <v>5222</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1222,10 +1225,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>5225</v>
+        <v>5223</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1233,10 +1236,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>5226</v>
+        <v>5225</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1244,10 +1247,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>5227</v>
+        <v>5226</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1255,10 +1258,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>5228</v>
+        <v>5227</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1266,10 +1269,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>5229</v>
+        <v>5228</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1277,10 +1280,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>5230</v>
+        <v>5229</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1288,10 +1291,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>5233</v>
+        <v>5230</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1299,10 +1302,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>5235</v>
+        <v>5233</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1310,32 +1313,32 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>5236</v>
+        <v>5235</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>5237</v>
+        <v>5236</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>5239</v>
+        <v>5237</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1343,10 +1346,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>5240</v>
+        <v>5239</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1354,65 +1357,65 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>5241</v>
+        <v>5240</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>5242</v>
+        <v>5241</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>5244</v>
+        <v>5242</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>5245</v>
+        <v>5244</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>5246</v>
+        <v>5245</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>5248</v>
+        <v>5246</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1420,21 +1423,21 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>5249</v>
+        <v>5248</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>5250</v>
+        <v>5249</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1442,10 +1445,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>5251</v>
+        <v>5250</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1453,32 +1456,32 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>5252</v>
+        <v>5251</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>5261</v>
+        <v>5252</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>5262</v>
+        <v>5261</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1486,10 +1489,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>5263</v>
+        <v>5262</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1497,10 +1500,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5264</v>
+        <v>5263</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1508,10 +1511,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>5265</v>
+        <v>5264</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1519,10 +1522,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5266</v>
+        <v>5265</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1530,10 +1533,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>5269</v>
+        <v>5266</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1541,10 +1544,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5272</v>
+        <v>5269</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1552,10 +1555,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1563,10 +1566,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>5276</v>
+        <v>5274</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1574,10 +1577,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>5277</v>
+        <v>5276</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1585,10 +1588,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>5278</v>
+        <v>5277</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1596,10 +1599,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>5280</v>
+        <v>5278</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1607,10 +1610,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>5281</v>
+        <v>5280</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1618,21 +1621,21 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>5283</v>
+        <v>5281</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>5284</v>
+        <v>5283</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1640,54 +1643,54 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>5285</v>
+        <v>5284</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>5286</v>
+        <v>5285</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>5287</v>
+        <v>5286</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>5289</v>
+        <v>5287</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>5290</v>
+        <v>5289</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1695,10 +1698,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>5294</v>
+        <v>5290</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1706,10 +1709,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>5296</v>
+        <v>5294</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1717,10 +1720,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>5297</v>
+        <v>5296</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1728,10 +1731,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>5298</v>
+        <v>5297</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1739,10 +1742,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>5301</v>
+        <v>5298</v>
       </c>
       <c r="B81" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1750,10 +1753,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>5305</v>
+        <v>5301</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1761,10 +1764,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>5309</v>
+        <v>5305</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1772,10 +1775,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>5312</v>
+        <v>5309</v>
       </c>
       <c r="B84" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1783,54 +1786,54 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>5313</v>
+        <v>5312</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>5315</v>
+        <v>5313</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>5317</v>
+        <v>5315</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>5318</v>
+        <v>5317</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>5319</v>
+        <v>5318</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1838,32 +1841,32 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>5320</v>
+        <v>5319</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>5322</v>
+        <v>5321</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1871,10 +1874,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>5326</v>
+        <v>5322</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1882,10 +1885,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>5327</v>
+        <v>5326</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1893,10 +1896,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>5328</v>
+        <v>5327</v>
       </c>
       <c r="B95" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1904,10 +1907,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>5329</v>
+        <v>5328</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -1915,10 +1918,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>5330</v>
+        <v>5329</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1926,10 +1929,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>5334</v>
+        <v>5330</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1937,10 +1940,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>5335</v>
+        <v>5334</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1948,10 +1951,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>5337</v>
+        <v>5335</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1959,10 +1962,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>5340</v>
+        <v>5337</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -1970,10 +1973,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>5342</v>
+        <v>5340</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -1981,10 +1984,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>5343</v>
+        <v>5342</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -1992,32 +1995,32 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>5344</v>
+        <v>5343</v>
       </c>
       <c r="B104" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>5350</v>
+        <v>5344</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>5351</v>
+        <v>5350</v>
       </c>
       <c r="B106" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2025,10 +2028,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>5352</v>
+        <v>5351</v>
       </c>
       <c r="B107" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2036,21 +2039,21 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>5354</v>
+        <v>5352</v>
       </c>
       <c r="B108" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>5360</v>
+        <v>5354</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2058,65 +2061,65 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>5361</v>
+        <v>5360</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>5362</v>
+        <v>5361</v>
       </c>
       <c r="B111" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>5365</v>
+        <v>5362</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>5366</v>
+        <v>5365</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>5367</v>
+        <v>5366</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>5369</v>
+        <v>5367</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2124,10 +2127,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>5373</v>
+        <v>5369</v>
       </c>
       <c r="B116" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2135,32 +2138,32 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>5375</v>
+        <v>5373</v>
       </c>
       <c r="B117" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>5377</v>
+        <v>5375</v>
       </c>
       <c r="B118" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>5378</v>
+        <v>5377</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2168,10 +2171,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>5383</v>
+        <v>5378</v>
       </c>
       <c r="B120" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2179,32 +2182,32 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>5384</v>
+        <v>5383</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>5387</v>
+        <v>5384</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>5388</v>
+        <v>5387</v>
       </c>
       <c r="B123" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2212,10 +2215,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>5389</v>
+        <v>5388</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2223,21 +2226,21 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>5392</v>
+        <v>5389</v>
       </c>
       <c r="B125" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>5393</v>
+        <v>5392</v>
       </c>
       <c r="B126" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -2245,21 +2248,21 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>5394</v>
+        <v>5393</v>
       </c>
       <c r="B127" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>5396</v>
+        <v>5394</v>
       </c>
       <c r="B128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2267,10 +2270,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>5397</v>
+        <v>5396</v>
       </c>
       <c r="B129" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2278,10 +2281,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="B130" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2289,10 +2292,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>13732</v>
+        <v>5398</v>
       </c>
       <c r="B131" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2300,10 +2303,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>14051</v>
+        <v>13732</v>
       </c>
       <c r="B132" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2311,10 +2314,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>14107</v>
+        <v>14051</v>
       </c>
       <c r="B133" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2322,10 +2325,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>14787</v>
+        <v>14107</v>
       </c>
       <c r="B134" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2333,10 +2336,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>14806</v>
+        <v>14787</v>
       </c>
       <c r="B135" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2344,10 +2347,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>15329</v>
+        <v>14806</v>
       </c>
       <c r="B136" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2355,10 +2358,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>16544</v>
+        <v>15329</v>
       </c>
       <c r="B137" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2366,10 +2369,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>16643</v>
+        <v>16544</v>
       </c>
       <c r="B138" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2377,10 +2380,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>16685</v>
+        <v>16643</v>
       </c>
       <c r="B139" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2388,10 +2391,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>16692</v>
+        <v>16685</v>
       </c>
       <c r="B140" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2399,21 +2402,21 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>16735</v>
+        <v>16692</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>16749</v>
+        <v>16735</v>
       </c>
       <c r="B142" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -2421,21 +2424,21 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>16813</v>
+        <v>16749</v>
       </c>
       <c r="B143" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>16843</v>
+        <v>16813</v>
       </c>
       <c r="B144" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2443,10 +2446,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>16862</v>
+        <v>16843</v>
       </c>
       <c r="B145" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2454,32 +2457,32 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>16864</v>
+        <v>16862</v>
       </c>
       <c r="B146" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>16898</v>
+        <v>16864</v>
       </c>
       <c r="B147" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>16938</v>
+        <v>16898</v>
       </c>
       <c r="B148" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2487,10 +2490,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>16965</v>
+        <v>16938</v>
       </c>
       <c r="B149" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2498,10 +2501,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>17001</v>
+        <v>16965</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2509,10 +2512,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>17062</v>
+        <v>17001</v>
       </c>
       <c r="B151" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2520,18 +2523,29 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
+        <v>17062</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
         <v>17063</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>150</v>
       </c>
-      <c r="C152">
+      <c r="C153">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C152">
-    <sortCondition ref="A1:A152"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C153">
+    <sortCondition ref="A1:A153"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/compras/proveedores_oficiales.xlsx
+++ b/data/compras/proveedores_oficiales.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7A79E1-ED0A-44AD-8A1E-08300F6FFE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F6C563-0A59-4F06-91F7-D06033695085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>partner_id</t>
   </si>
@@ -485,6 +486,18 @@
   </si>
   <si>
     <t>Herrajes Y Materiales De Los Cabos</t>
+  </si>
+  <si>
+    <t>Electrica Sanbello</t>
+  </si>
+  <si>
+    <t>Maquinaria Y Agregados De La Baja</t>
+  </si>
+  <si>
+    <t>Proriego Sistemas De Riego</t>
+  </si>
+  <si>
+    <t>FYMSA BAJA SUR</t>
   </si>
 </sst>
 </file>
@@ -847,11 +860,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1533,10 +1546,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>5266</v>
+        <v>5183</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1544,10 +1557,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5269</v>
+        <v>5160</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1555,10 +1568,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5272</v>
+        <v>5205</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1566,10 +1579,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>5274</v>
+        <v>14576</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1577,10 +1590,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>5276</v>
+        <v>5266</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1588,10 +1601,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>5277</v>
+        <v>5269</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1599,10 +1612,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>5278</v>
+        <v>5272</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1610,10 +1623,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>5280</v>
+        <v>5274</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1621,10 +1634,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>5281</v>
+        <v>5276</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1632,32 +1645,32 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>5283</v>
+        <v>5277</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>5284</v>
+        <v>5278</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>5285</v>
+        <v>5280</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1665,21 +1678,21 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>5286</v>
+        <v>5281</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>5287</v>
+        <v>5283</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1687,21 +1700,21 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>5289</v>
+        <v>5284</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1709,32 +1722,32 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>5294</v>
+        <v>5286</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>5296</v>
+        <v>5287</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>5297</v>
+        <v>5289</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1742,10 +1755,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>5298</v>
+        <v>5290</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1753,10 +1766,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>5301</v>
+        <v>5294</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1764,10 +1777,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>5305</v>
+        <v>5296</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1775,10 +1788,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>5309</v>
+        <v>5297</v>
       </c>
       <c r="B84" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1786,10 +1799,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>5312</v>
+        <v>5298</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1797,21 +1810,21 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>5313</v>
+        <v>5301</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1819,21 +1832,21 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>5317</v>
+        <v>5309</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>5318</v>
+        <v>5312</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1841,43 +1854,43 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>5319</v>
+        <v>5313</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>5320</v>
+        <v>5315</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>5321</v>
+        <v>5317</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>5322</v>
+        <v>5318</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1885,10 +1898,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>5326</v>
+        <v>5319</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1896,21 +1909,21 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>5327</v>
+        <v>5320</v>
       </c>
       <c r="B95" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>5328</v>
+        <v>5321</v>
       </c>
       <c r="B96" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -1918,10 +1931,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>5329</v>
+        <v>5322</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1929,10 +1942,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>5330</v>
+        <v>5326</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1940,10 +1953,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>5334</v>
+        <v>5327</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1951,10 +1964,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>5335</v>
+        <v>5328</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1962,10 +1975,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>5337</v>
+        <v>5329</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -1973,10 +1986,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="B102" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -1984,10 +1997,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>5342</v>
+        <v>5334</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -1995,10 +2008,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>5343</v>
+        <v>5335</v>
       </c>
       <c r="B104" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2006,21 +2019,21 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>5344</v>
+        <v>5337</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>5350</v>
+        <v>5340</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2028,10 +2041,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>5351</v>
+        <v>5342</v>
       </c>
       <c r="B107" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2039,10 +2052,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>5352</v>
+        <v>5343</v>
       </c>
       <c r="B108" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2050,10 +2063,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>5354</v>
+        <v>5344</v>
       </c>
       <c r="B109" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2061,21 +2074,21 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>5360</v>
+        <v>5350</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>5361</v>
+        <v>5351</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2083,32 +2096,32 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>5362</v>
+        <v>5352</v>
       </c>
       <c r="B112" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>5365</v>
+        <v>5354</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>5366</v>
+        <v>5360</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -2116,10 +2129,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>5367</v>
+        <v>5361</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2127,21 +2140,21 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>5369</v>
+        <v>5362</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>5373</v>
+        <v>5365</v>
       </c>
       <c r="B117" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2149,10 +2162,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>5375</v>
+        <v>5366</v>
       </c>
       <c r="B118" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -2160,10 +2173,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>5377</v>
+        <v>5367</v>
       </c>
       <c r="B119" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2171,10 +2184,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>5378</v>
+        <v>5369</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2182,10 +2195,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>5383</v>
+        <v>5373</v>
       </c>
       <c r="B121" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2193,10 +2206,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>5384</v>
+        <v>5375</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -2204,10 +2217,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>5387</v>
+        <v>5377</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2215,10 +2228,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>5388</v>
+        <v>5378</v>
       </c>
       <c r="B124" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2226,10 +2239,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>5389</v>
+        <v>5383</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2237,10 +2250,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>5392</v>
+        <v>5384</v>
       </c>
       <c r="B126" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -2248,21 +2261,21 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>5393</v>
+        <v>5387</v>
       </c>
       <c r="B127" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>5394</v>
+        <v>5388</v>
       </c>
       <c r="B128" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2270,10 +2283,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>5396</v>
+        <v>5389</v>
       </c>
       <c r="B129" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2281,32 +2294,32 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>5397</v>
+        <v>5392</v>
       </c>
       <c r="B130" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>5398</v>
+        <v>5393</v>
       </c>
       <c r="B131" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>13732</v>
+        <v>5394</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2314,10 +2327,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>14051</v>
+        <v>5396</v>
       </c>
       <c r="B133" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2325,10 +2338,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>14107</v>
+        <v>5397</v>
       </c>
       <c r="B134" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2336,10 +2349,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>14787</v>
+        <v>5398</v>
       </c>
       <c r="B135" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2347,10 +2360,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>14806</v>
+        <v>13732</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2358,10 +2371,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>15329</v>
+        <v>14051</v>
       </c>
       <c r="B137" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2369,10 +2382,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>16544</v>
+        <v>14107</v>
       </c>
       <c r="B138" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2380,10 +2393,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>16643</v>
+        <v>14787</v>
       </c>
       <c r="B139" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2391,10 +2404,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>16685</v>
+        <v>14806</v>
       </c>
       <c r="B140" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2402,10 +2415,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>16692</v>
+        <v>15329</v>
       </c>
       <c r="B141" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2413,32 +2426,32 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>16735</v>
+        <v>16544</v>
       </c>
       <c r="B142" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>16749</v>
+        <v>16643</v>
       </c>
       <c r="B143" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>16813</v>
+        <v>16685</v>
       </c>
       <c r="B144" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2446,10 +2459,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>16843</v>
+        <v>16692</v>
       </c>
       <c r="B145" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2457,21 +2470,21 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>16862</v>
+        <v>16735</v>
       </c>
       <c r="B146" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>16864</v>
+        <v>16749</v>
       </c>
       <c r="B147" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -2479,10 +2492,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>16898</v>
+        <v>16813</v>
       </c>
       <c r="B148" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2490,10 +2503,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>16938</v>
+        <v>16843</v>
       </c>
       <c r="B149" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2501,10 +2514,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>16965</v>
+        <v>16862</v>
       </c>
       <c r="B150" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2512,21 +2525,21 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>17001</v>
+        <v>16864</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>17062</v>
+        <v>16898</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2534,19 +2547,77 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
+        <v>16938</v>
+      </c>
+      <c r="B153" t="s">
+        <v>51</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>16965</v>
+      </c>
+      <c r="B154" t="s">
+        <v>62</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>17001</v>
+      </c>
+      <c r="B155" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>17062</v>
+      </c>
+      <c r="B156" t="s">
+        <v>152</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
         <v>17063</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B157" t="s">
         <v>150</v>
       </c>
-      <c r="C153">
+      <c r="C157">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C153">
-    <sortCondition ref="A1:A153"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C157">
+    <sortCondition ref="A1:A157"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4A8466-E02D-4479-B38F-CDE5697980A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/compras/proveedores_oficiales.xlsx
+++ b/data/compras/proveedores_oficiales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\compras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liccasa\Documents\Programación\odoo_comisiones\data\compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F6C563-0A59-4F06-91F7-D06033695085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD26F9E-E681-4FF4-8C34-0684E987F4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25440" yWindow="1110" windowWidth="14220" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>partner_id</t>
   </si>
@@ -498,6 +498,12 @@
   </si>
   <si>
     <t>FYMSA BAJA SUR</t>
+  </si>
+  <si>
+    <t>Ferre Lab</t>
+  </si>
+  <si>
+    <t>Aaron Lagarda Borbom</t>
   </si>
 </sst>
 </file>
@@ -860,20 +866,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,7 +890,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5127</v>
       </c>
@@ -895,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5128</v>
       </c>
@@ -906,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5131</v>
       </c>
@@ -917,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5136</v>
       </c>
@@ -928,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5139</v>
       </c>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5140</v>
       </c>
@@ -950,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5143</v>
       </c>
@@ -961,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5146</v>
       </c>
@@ -972,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5147</v>
       </c>
@@ -983,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5153</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5157</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5161</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5162</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5164</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5165</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5166</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5167</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5170</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5173</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5174</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5175</v>
       </c>
@@ -1115,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5178</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5179</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5180</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5181</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5182</v>
       </c>
@@ -1170,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5200</v>
       </c>
@@ -1181,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5209</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5215</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5219</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5221</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5222</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5223</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5225</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5226</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5227</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5228</v>
       </c>
@@ -1291,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5229</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5230</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5233</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5235</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5236</v>
       </c>
@@ -1346,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5237</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5239</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5240</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5241</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5242</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5244</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5245</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5246</v>
       </c>
@@ -1434,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5248</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5249</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5250</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5251</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5252</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5261</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5262</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5263</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5264</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5265</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5183</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5160</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5205</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>14576</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5266</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5269</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5272</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5274</v>
       </c>
@@ -1632,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5276</v>
       </c>
@@ -1643,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5277</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5278</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5280</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5281</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5283</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5284</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5285</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5286</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5287</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5289</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5290</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5294</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5296</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5297</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5298</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5301</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5305</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5309</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5312</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5313</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5315</v>
       </c>
@@ -1874,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5317</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5318</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5319</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5320</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5321</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5322</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5326</v>
       </c>
@@ -1951,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5327</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5328</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5329</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5330</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5334</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5335</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5337</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5340</v>
       </c>
@@ -2039,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5342</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5343</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5344</v>
       </c>
@@ -2072,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5350</v>
       </c>
@@ -2083,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5351</v>
       </c>
@@ -2094,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5352</v>
       </c>
@@ -2105,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5354</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5360</v>
       </c>
@@ -2127,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5361</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5362</v>
       </c>
@@ -2149,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5365</v>
       </c>
@@ -2160,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5366</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5367</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5369</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5373</v>
       </c>
@@ -2204,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5375</v>
       </c>
@@ -2215,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5377</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5378</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5383</v>
       </c>
@@ -2248,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5384</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5387</v>
       </c>
@@ -2270,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5388</v>
       </c>
@@ -2281,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5389</v>
       </c>
@@ -2292,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5392</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5393</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5394</v>
       </c>
@@ -2325,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5396</v>
       </c>
@@ -2336,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5397</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5398</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>13732</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>14051</v>
       </c>
@@ -2380,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>14107</v>
       </c>
@@ -2391,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>14787</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>14806</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>15329</v>
       </c>
@@ -2424,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>16544</v>
       </c>
@@ -2435,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>16643</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>16685</v>
       </c>
@@ -2457,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>16692</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>16735</v>
       </c>
@@ -2479,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>16749</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>16813</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>16843</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>16862</v>
       </c>
@@ -2523,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>16864</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>16898</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>16938</v>
       </c>
@@ -2556,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>16965</v>
       </c>
@@ -2567,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>17001</v>
       </c>
@@ -2578,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>17062</v>
       </c>
@@ -2589,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>17063</v>
       </c>
@@ -2597,6 +2603,28 @@
         <v>150</v>
       </c>
       <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>17132</v>
+      </c>
+      <c r="B158" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>17194</v>
+      </c>
+      <c r="B159" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159">
         <v>0</v>
       </c>
     </row>
@@ -2616,7 +2644,7 @@
       <selection activeCell="A7" sqref="A7:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/compras/proveedores_oficiales.xlsx
+++ b/data/compras/proveedores_oficiales.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liccasa\Documents\Programación\odoo_comisiones\data\compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD26F9E-E681-4FF4-8C34-0684E987F4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4853631-8AC3-4E34-A09C-32356A037E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25440" yWindow="1110" windowWidth="14220" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2634,18 +2633,4 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4A8466-E02D-4479-B38F-CDE5697980A6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/compras/proveedores_oficiales.xlsx
+++ b/data/compras/proveedores_oficiales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liccasa\Documents\Programación\odoo_comisiones\data\compras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4853631-8AC3-4E34-A09C-32356A037E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93A4A4A-56AA-4625-A613-17D9E223AC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>partner_id</t>
   </si>
@@ -503,6 +503,12 @@
   </si>
   <si>
     <t>Aaron Lagarda Borbom</t>
+  </si>
+  <si>
+    <t>INTERNI DESIGN STUDIO</t>
+  </si>
+  <si>
+    <t>Pinturas Famosas</t>
   </si>
 </sst>
 </file>
@@ -865,20 +871,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C164" sqref="C164"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +895,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5127</v>
       </c>
@@ -900,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5128</v>
       </c>
@@ -911,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5131</v>
       </c>
@@ -922,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5136</v>
       </c>
@@ -933,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5139</v>
       </c>
@@ -944,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5140</v>
       </c>
@@ -955,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5143</v>
       </c>
@@ -966,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5146</v>
       </c>
@@ -977,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5147</v>
       </c>
@@ -988,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5153</v>
       </c>
@@ -999,601 +1005,601 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>5154</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>5157</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5160</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>5161</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>68</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>5162</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>97</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>5164</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>110</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>5165</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>106</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>5166</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>146</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>5167</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>130</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>5170</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>151</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>5173</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>5174</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>5175</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>115</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>5178</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>5179</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>5180</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>5181</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>66</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>5182</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>94</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5183</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>5200</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>121</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>5205</v>
+      </c>
+      <c r="B32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>5209</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>5215</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" t="s">
         <v>154</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>5219</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>53</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>5221</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>16</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>5222</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>139</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>5223</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>105</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>5225</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" t="s">
         <v>124</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>5226</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" t="s">
         <v>59</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>5227</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>31</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>5228</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
         <v>30</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>5229</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>147</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>5230</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>70</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>5233</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>89</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>5235</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" t="s">
         <v>111</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>5236</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" t="s">
         <v>99</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>5237</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" t="s">
         <v>92</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>5239</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B49" t="s">
         <v>82</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>5240</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B50" t="s">
         <v>15</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>5241</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B51" t="s">
         <v>9</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>5242</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B52" t="s">
         <v>114</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>5244</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B53" t="s">
         <v>25</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>5245</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B54" t="s">
         <v>41</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>5246</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B55" t="s">
         <v>3</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>5248</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B56" t="s">
         <v>87</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>5249</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B57" t="s">
         <v>96</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>5250</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B58" t="s">
         <v>42</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>5251</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B59" t="s">
         <v>84</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>5252</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B60" t="s">
         <v>131</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>5261</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B61" t="s">
         <v>123</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>5262</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B62" t="s">
         <v>36</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>5263</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B63" t="s">
         <v>122</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>5264</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B64" t="s">
         <v>58</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>5265</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B65" t="s">
         <v>69</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>5183</v>
-      </c>
-      <c r="B62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>5160</v>
-      </c>
-      <c r="B63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>5205</v>
-      </c>
-      <c r="B64" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>14576</v>
-      </c>
-      <c r="B65" t="s">
-        <v>158</v>
-      </c>
       <c r="C65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5266</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>5269</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>5272</v>
       </c>
@@ -1626,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>5274</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5276</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>5277</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>5278</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5280</v>
       </c>
@@ -1681,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>5281</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>5283</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5284</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5285</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5286</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5287</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>5289</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5290</v>
       </c>
@@ -1769,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>5294</v>
       </c>
@@ -1780,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5296</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>5297</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>5298</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>5301</v>
       </c>
@@ -1824,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>5305</v>
       </c>
@@ -1835,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5309</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>5312</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5313</v>
       </c>
@@ -1868,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5315</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5317</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>5318</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>5319</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5320</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5321</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>5322</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>5326</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>5327</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>5328</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>5329</v>
       </c>
@@ -1989,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>5330</v>
       </c>
@@ -2000,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>5334</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>5335</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5337</v>
       </c>
@@ -2033,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5340</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5342</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5343</v>
       </c>
@@ -2066,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5344</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5350</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5351</v>
       </c>
@@ -2099,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5352</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5354</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5360</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5361</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5362</v>
       </c>
@@ -2154,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5365</v>
       </c>
@@ -2165,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5366</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5367</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5369</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5373</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5375</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5377</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5378</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5383</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5384</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>5387</v>
       </c>
@@ -2275,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5388</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>5389</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>5392</v>
       </c>
@@ -2308,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>5393</v>
       </c>
@@ -2319,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>5394</v>
       </c>
@@ -2330,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>5396</v>
       </c>
@@ -2341,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>5397</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>5398</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>13732</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>14051</v>
       </c>
@@ -2385,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>14107</v>
       </c>
@@ -2396,240 +2402,262 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
+        <v>14576</v>
+      </c>
+      <c r="B139" t="s">
+        <v>158</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
         <v>14787</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>34</v>
       </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
         <v>14806</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>145</v>
       </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
         <v>15329</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>127</v>
       </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
         <v>16544</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>77</v>
       </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
         <v>16643</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>125</v>
       </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
         <v>16685</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>119</v>
       </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>16692</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>116</v>
       </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
         <v>16735</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>44</v>
       </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148">
         <v>16749</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>104</v>
       </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
         <v>16813</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>107</v>
       </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
         <v>16843</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>98</v>
       </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
         <v>16862</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>80</v>
       </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
         <v>16864</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>91</v>
       </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
         <v>16898</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>50</v>
       </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
         <v>16938</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>51</v>
       </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
         <v>16965</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>62</v>
       </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
         <v>17001</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>19</v>
       </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
         <v>17062</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>152</v>
       </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
         <v>17063</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>150</v>
       </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
         <v>17132</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>159</v>
       </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
         <v>17194</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>160</v>
       </c>
-      <c r="C159">
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>17236</v>
+      </c>
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C157">
-    <sortCondition ref="A1:A157"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C161">
+    <sortCondition ref="A1:A161"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/compras/proveedores_oficiales.xlsx
+++ b/data/compras/proveedores_oficiales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\compras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liccasa\Documents\Programación\odoo_comisiones\data\compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93A4A4A-56AA-4625-A613-17D9E223AC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407C3A8E-B969-49A3-96E4-E6A0FFA4BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>partner_id</t>
   </si>
@@ -509,6 +509,12 @@
   </si>
   <si>
     <t>Pinturas Famosas</t>
+  </si>
+  <si>
+    <t>Justino Bautista Salinas</t>
+  </si>
+  <si>
+    <t>Modatelas</t>
   </si>
 </sst>
 </file>
@@ -527,6 +533,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -871,20 +878,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,7 +902,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5127</v>
       </c>
@@ -906,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5128</v>
       </c>
@@ -917,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5131</v>
       </c>
@@ -928,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5136</v>
       </c>
@@ -939,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5139</v>
       </c>
@@ -950,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5140</v>
       </c>
@@ -961,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5143</v>
       </c>
@@ -972,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5146</v>
       </c>
@@ -983,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5147</v>
       </c>
@@ -994,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5153</v>
       </c>
@@ -1005,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5154</v>
       </c>
@@ -1016,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5157</v>
       </c>
@@ -1027,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5160</v>
       </c>
@@ -1038,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5161</v>
       </c>
@@ -1049,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5162</v>
       </c>
@@ -1060,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5164</v>
       </c>
@@ -1071,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5165</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5166</v>
       </c>
@@ -1093,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5167</v>
       </c>
@@ -1104,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5170</v>
       </c>
@@ -1115,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5173</v>
       </c>
@@ -1126,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5174</v>
       </c>
@@ -1137,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5175</v>
       </c>
@@ -1148,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5178</v>
       </c>
@@ -1159,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5179</v>
       </c>
@@ -1170,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5180</v>
       </c>
@@ -1181,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5181</v>
       </c>
@@ -1192,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5182</v>
       </c>
@@ -1203,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5183</v>
       </c>
@@ -1214,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5200</v>
       </c>
@@ -1225,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5205</v>
       </c>
@@ -1236,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5209</v>
       </c>
@@ -1247,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5215</v>
       </c>
@@ -1258,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5219</v>
       </c>
@@ -1269,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5221</v>
       </c>
@@ -1280,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5222</v>
       </c>
@@ -1291,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5223</v>
       </c>
@@ -1302,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5225</v>
       </c>
@@ -1313,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5226</v>
       </c>
@@ -1324,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5227</v>
       </c>
@@ -1335,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5228</v>
       </c>
@@ -1346,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5229</v>
       </c>
@@ -1357,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5230</v>
       </c>
@@ -1368,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5233</v>
       </c>
@@ -1379,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5235</v>
       </c>
@@ -1390,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5236</v>
       </c>
@@ -1401,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5237</v>
       </c>
@@ -1412,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5239</v>
       </c>
@@ -1423,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5240</v>
       </c>
@@ -1434,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5241</v>
       </c>
@@ -1445,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5242</v>
       </c>
@@ -1456,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5244</v>
       </c>
@@ -1467,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5245</v>
       </c>
@@ -1478,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5246</v>
       </c>
@@ -1489,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5248</v>
       </c>
@@ -1500,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5249</v>
       </c>
@@ -1511,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5250</v>
       </c>
@@ -1522,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5251</v>
       </c>
@@ -1533,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5252</v>
       </c>
@@ -1544,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5261</v>
       </c>
@@ -1555,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5262</v>
       </c>
@@ -1566,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5263</v>
       </c>
@@ -1577,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5264</v>
       </c>
@@ -1588,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5265</v>
       </c>
@@ -1599,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5266</v>
       </c>
@@ -1610,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5269</v>
       </c>
@@ -1621,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5272</v>
       </c>
@@ -1632,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5274</v>
       </c>
@@ -1643,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5276</v>
       </c>
@@ -1654,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5277</v>
       </c>
@@ -1665,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5278</v>
       </c>
@@ -1676,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5280</v>
       </c>
@@ -1687,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5281</v>
       </c>
@@ -1698,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5283</v>
       </c>
@@ -1709,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5284</v>
       </c>
@@ -1720,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5285</v>
       </c>
@@ -1731,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5286</v>
       </c>
@@ -1742,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5287</v>
       </c>
@@ -1753,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5289</v>
       </c>
@@ -1764,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5290</v>
       </c>
@@ -1775,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5294</v>
       </c>
@@ -1786,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5296</v>
       </c>
@@ -1797,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5297</v>
       </c>
@@ -1808,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5298</v>
       </c>
@@ -1819,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5301</v>
       </c>
@@ -1830,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5305</v>
       </c>
@@ -1841,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5309</v>
       </c>
@@ -1852,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5312</v>
       </c>
@@ -1863,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5313</v>
       </c>
@@ -1874,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5315</v>
       </c>
@@ -1885,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5317</v>
       </c>
@@ -1896,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5318</v>
       </c>
@@ -1907,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5319</v>
       </c>
@@ -1918,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5320</v>
       </c>
@@ -1929,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5321</v>
       </c>
@@ -1940,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5322</v>
       </c>
@@ -1951,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5326</v>
       </c>
@@ -1962,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5327</v>
       </c>
@@ -1973,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5328</v>
       </c>
@@ -1984,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5329</v>
       </c>
@@ -1995,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5330</v>
       </c>
@@ -2006,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5334</v>
       </c>
@@ -2017,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5335</v>
       </c>
@@ -2028,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5337</v>
       </c>
@@ -2039,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5340</v>
       </c>
@@ -2050,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5342</v>
       </c>
@@ -2061,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5343</v>
       </c>
@@ -2072,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5344</v>
       </c>
@@ -2083,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5350</v>
       </c>
@@ -2094,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5351</v>
       </c>
@@ -2105,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5352</v>
       </c>
@@ -2116,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5354</v>
       </c>
@@ -2127,537 +2134,559 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
+        <v>5357</v>
+      </c>
+      <c r="B114" t="s">
+        <v>163</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>5360</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>112</v>
       </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>5361</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>18</v>
       </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>5362</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>90</v>
       </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>5365</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>22</v>
       </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>5366</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>14</v>
       </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>5367</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>32</v>
       </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>5369</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>38</v>
       </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>5373</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>102</v>
       </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5374</v>
+      </c>
+      <c r="B123" t="s">
+        <v>164</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>5375</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B124" t="s">
         <v>65</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123">
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>5377</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B125" t="s">
         <v>132</v>
       </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124">
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>5378</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B126" t="s">
         <v>43</v>
       </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125">
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>5383</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B127" t="s">
         <v>76</v>
       </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126">
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>5384</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B128" t="s">
         <v>26</v>
       </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127">
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>5387</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B129" t="s">
         <v>4</v>
       </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128">
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>5388</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B130" t="s">
         <v>83</v>
       </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>5389</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B131" t="s">
         <v>126</v>
       </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130">
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>5392</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B132" t="s">
         <v>81</v>
       </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>5393</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B133" t="s">
         <v>37</v>
       </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132">
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>5394</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B134" t="s">
         <v>143</v>
       </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>5396</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B135" t="s">
         <v>142</v>
       </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134">
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>5397</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B136" t="s">
         <v>144</v>
       </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135">
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>5398</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B137" t="s">
         <v>54</v>
       </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>13732</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B138" t="s">
         <v>39</v>
       </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>14051</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B139" t="s">
         <v>63</v>
       </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>14107</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B140" t="s">
         <v>72</v>
       </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139">
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>14576</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B141" t="s">
         <v>158</v>
       </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>14787</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B142" t="s">
         <v>34</v>
       </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>14806</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B143" t="s">
         <v>145</v>
       </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>15329</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B144" t="s">
         <v>127</v>
       </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143">
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>16544</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B145" t="s">
         <v>77</v>
       </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144">
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>16643</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B146" t="s">
         <v>125</v>
       </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145">
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>16685</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B147" t="s">
         <v>119</v>
       </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146">
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>16692</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B148" t="s">
         <v>116</v>
       </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147">
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>16735</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B149" t="s">
         <v>44</v>
       </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>16749</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B150" t="s">
         <v>104</v>
       </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149">
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>16813</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B151" t="s">
         <v>107</v>
       </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150">
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>16843</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B152" t="s">
         <v>98</v>
       </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151">
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>16862</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B153" t="s">
         <v>80</v>
       </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152">
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>16864</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B154" t="s">
         <v>91</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153">
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>16898</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B155" t="s">
         <v>50</v>
       </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154">
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>16938</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B156" t="s">
         <v>51</v>
       </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155">
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>16965</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B157" t="s">
         <v>62</v>
       </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156">
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>17001</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B158" t="s">
         <v>19</v>
       </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157">
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>17062</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B159" t="s">
         <v>152</v>
       </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158">
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>17063</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B160" t="s">
         <v>150</v>
       </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159">
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>17132</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B161" t="s">
         <v>159</v>
       </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160">
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>17194</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B162" t="s">
         <v>160</v>
       </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161">
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>17236</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B163" t="s">
         <v>161</v>
       </c>
-      <c r="C161">
+      <c r="C163">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C161">
-    <sortCondition ref="A1:A161"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C163">
+    <sortCondition ref="A1:A163"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
